--- a/biology/Zoologie/Conure_de_Hoffmann/Conure_de_Hoffmann.xlsx
+++ b/biology/Zoologie/Conure_de_Hoffmann/Conure_de_Hoffmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrrhura hoffmanni
 La Conure de Hoffmann (Pyrrhura hoffmanni) est une espèce d'oiseau de la famille des Psittacidae.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est voisine de la Conure de Souancé. Elle s'en distingue par les écailles jaunes et vertes couvrant la tête, le cou, la poitrine et une partie du ventre alliées à l'absence de plastron sur le bas de la poitrine et le ventre. Elle présente une marque rouge en arrière de chaque oreille. Les rémiges sont bleuâtres. Elle mesure environ 24 cm.
 </t>
@@ -544,7 +558,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pyrrhura hoffmanni gaudens Bangs, 1906
 Pyrrhura hoffmanni hoffmanni (Cabanis, 1861)</t>
